--- a/my_quizlog.xlsx
+++ b/my_quizlog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -36,6 +36,120 @@
   </si>
   <si>
     <t xml:space="preserve">SettingNiveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.02.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en - de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">düster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Civilization_Season 1_Episode 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.02.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butchered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geschlachtet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.02.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scharf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.03.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfruchtbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.03.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cataclysm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.03.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überdachung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.03.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schrecklich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ärmlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sophisticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anspruchsvoll</t>
   </si>
 </sst>
 </file>
@@ -393,6 +507,292 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_quizlog.xlsx
+++ b/my_quizlog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -150,6 +150,90 @@
   </si>
   <si>
     <t xml:space="preserve">anspruchsvoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.42.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vast region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riesiges Gebiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rieisges Gebiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.42.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pristine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makellos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.42.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wassergräben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hügel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.42.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfolding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entfaltung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.42.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.43.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strangeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremdheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.43.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brushed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebürstet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.43.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.43.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hässlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.43.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schleier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -793,6 +877,266 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_quizlog.xlsx
+++ b/my_quizlog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -234,6 +234,111 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.26.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 english words wiht letter [A]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erwerben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquirieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">across</t>
+  </si>
+  <si>
+    <t xml:space="preserve">über</t>
+  </si>
+  <si>
+    <t xml:space="preserve">überqueren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ändern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wechseln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.27.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.28.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuteilen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbleiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.28.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatsächlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigentlich</t>
   </si>
 </sst>
 </file>
@@ -1137,6 +1242,266 @@
         <v>14</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_quizlog.xlsx
+++ b/my_quizlog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -339,6 +339,132 @@
   </si>
   <si>
     <t xml:space="preserve">eigentlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.42.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallensteller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.42.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.42.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">austere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.42.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peopling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevölkerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.42.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verborgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.50.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.50.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rampard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rampe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.51.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amongst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.51.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.57.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.58.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.58.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nahezu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.58.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swathes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.04.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.04.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.16.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorauszahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voraus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.16.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akurat</t>
   </si>
 </sst>
 </file>
@@ -1502,6 +1628,448 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
